--- a/outcome/appendix/data/0_impact/Malaria.xlsx
+++ b/outcome/appendix/data/0_impact/Malaria.xlsx
@@ -409,7 +409,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>232.652706825395</v>
+        <v>232.652705308882</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -427,7 +427,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>228.750331879415</v>
+        <v>228.750328141609</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -445,7 +445,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>226.588650102812</v>
+        <v>226.588646780744</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -463,7 +463,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>221.851589772664</v>
+        <v>221.851584380971</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -481,7 +481,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>219.118034735897</v>
+        <v>219.118030949563</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -499,7 +499,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>229.370736362129</v>
+        <v>229.370731400881</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -517,7 +517,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>247.732533735948</v>
+        <v>247.732532394695</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -535,7 +535,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>236.394401503293</v>
+        <v>236.394399639977</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -553,7 +553,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>243.836927021059</v>
+        <v>243.83692623049</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -571,7 +571,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>226.986790696385</v>
+        <v>226.98678858281</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -589,7 +589,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>232.608280697559</v>
+        <v>232.608278388329</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -607,7 +607,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>227.54415681902</v>
+        <v>227.54415388732</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -625,7 +625,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>230.875557171552</v>
+        <v>230.875554671493</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -643,7 +643,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>234.059593390814</v>
+        <v>234.059590219479</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -661,7 +661,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>233.489927913359</v>
+        <v>233.489925859353</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -679,7 +679,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>229.403995915094</v>
+        <v>229.40399193719</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -697,7 +697,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>228.91230155662</v>
+        <v>228.91229791615</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -715,7 +715,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>227.484969448035</v>
+        <v>227.484964661984</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -733,7 +733,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>235.221857555045</v>
+        <v>235.221854214647</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -751,7 +751,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>235.7490934512</v>
+        <v>235.74909091355</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -769,7 +769,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>239.112951928384</v>
+        <v>239.112950522543</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -787,7 +787,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>235.607091399018</v>
+        <v>235.607089777422</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -805,7 +805,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>233.128272185137</v>
+        <v>233.128270124999</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -823,7 +823,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>230.827369243765</v>
+        <v>230.827365950484</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -841,7 +841,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>230.942187197458</v>
+        <v>230.942183981777</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -859,7 +859,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>232.27140326779</v>
+        <v>232.271399755444</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -877,7 +877,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>234.026148097095</v>
+        <v>234.026145606194</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -895,7 +895,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>232.736969009957</v>
+        <v>232.736966237491</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -913,7 +913,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>232.14404393813</v>
+        <v>232.144041068292</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -931,7 +931,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>230.272535588378</v>
+        <v>230.272531881225</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -949,7 +949,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>231.660941897207</v>
+        <v>231.660938154808</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -967,7 +967,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>233.080162765387</v>
+        <v>233.080159362142</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -985,7 +985,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>235.139927407699</v>
+        <v>235.139924951867</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1003,7 +1003,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>235.535412365848</v>
+        <v>235.535410386794</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1021,7 +1021,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>234.576202969922</v>
+        <v>234.576201168037</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1039,7 +1039,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>232.834250112905</v>
+        <v>232.834247508339</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1057,7 +1057,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>231.962676861166</v>
+        <v>231.962673775235</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -1075,7 +1075,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>231.844171038294</v>
+        <v>231.844167501636</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
